--- a/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-39,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,02</t>
+          <t>-4,92; 5,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,67</t>
+          <t>-5,98; 2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 3,41</t>
+          <t>-2,57; 11,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,65</t>
+          <t>-15,68; 4,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 88,39</t>
+          <t>-66,84; 192,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 68,21</t>
+          <t>-83,94; 106,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 17,24</t>
+          <t>-18,86; 130,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 17,6</t>
+          <t>-44,92; 21,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-4,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,67</t>
+          <t>-3,06; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,13</t>
+          <t>-4,38; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,17</t>
+          <t>-9,82; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 4,83</t>
+          <t>-8,59; 5,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 192,28</t>
+          <t>-33,98; 88,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,94; 106,39</t>
+          <t>-45,71; 68,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 130,04</t>
+          <t>-33,69; 17,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 21,44</t>
+          <t>-21,64; 17,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,27 +620,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>-10,86%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 25,58</t>
+          <t>-48,86; 38,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 108,32</t>
+          <t>-86,24; 351,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-14,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-39,87%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,67</t>
+          <t>-3,79; 4,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,13</t>
+          <t>-5,8; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,17</t>
+          <t>-5,52; 9,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 4,83</t>
+          <t>-27,46; -3,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 192,28</t>
+          <t>-77,84; 652,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,94; 106,39</t>
+          <t>-87,21; 409,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 130,04</t>
+          <t>-46,45; 139,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 21,44</t>
+          <t>-61,92; -9,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-38,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>34,21%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,02</t>
+          <t>-7,39; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,67</t>
+          <t>-6,55; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 3,41</t>
+          <t>-7,56; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,65</t>
+          <t>-1,45; 18,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 88,39</t>
+          <t>-62,46; 107,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 68,21</t>
+          <t>-79,21; 82,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 17,24</t>
+          <t>-35,2; 53,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 17,6</t>
+          <t>-6,05; 92,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-13,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-13,35%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,07</t>
+          <t>-2,42; 6,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,05</t>
+          <t>-5,01; 5,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,28</t>
+          <t>-12,74; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 3,18</t>
+          <t>-13,54; 3,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 77,58</t>
+          <t>-27,44; 136,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 44,06</t>
+          <t>-47,64; 102,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 24,11</t>
+          <t>-39,28; 21,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 10,64</t>
+          <t>-32,41; 11,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-9,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 3,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 2,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 4,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 4,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-29,31; 66,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-44,85; 45,6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 23,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; 13,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 38,89</t>
+          <t>-46,74; 37,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-86,24; 351,92</t>
+          <t>-84,67; 362,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,81</t>
+          <t>-4,02; 4,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,65</t>
+          <t>-6,14; 4,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 9,04</t>
+          <t>-6,54; 9,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -3,25</t>
+          <t>-27,43; -1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,84; 652,07</t>
+          <t>-77,44; 487,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,21; 409,83</t>
+          <t>-100,0; 318,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 139,8</t>
+          <t>-50,67; 139,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,92; -9,69</t>
+          <t>-64,07; -4,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 5,14</t>
+          <t>-6,54; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,51</t>
+          <t>-6,71; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 7,54</t>
+          <t>-8,74; 7,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 18,13</t>
+          <t>-2,2; 18,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,46; 107,28</t>
+          <t>-62,57; 96,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,21; 82,66</t>
+          <t>-82,98; 73,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 53,11</t>
+          <t>-38,88; 53,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 92,03</t>
+          <t>-9,45; 93,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 6,78</t>
+          <t>-2,71; 6,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,64</t>
+          <t>-5,67; 5,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 4,86</t>
+          <t>-12,62; 5,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 3,85</t>
+          <t>-14,35; 3,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 136,3</t>
+          <t>-29,14; 131,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 102,21</t>
+          <t>-51,96; 91,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 21,83</t>
+          <t>-40,03; 23,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 11,06</t>
+          <t>-32,29; 9,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,79</t>
+          <t>-2,74; 3,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,29</t>
+          <t>-3,52; 2,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,11</t>
+          <t>-5,6; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,23</t>
+          <t>-8,07; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 66,63</t>
+          <t>-32,65; 70,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 45,6</t>
+          <t>-45,89; 45,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 23,51</t>
+          <t>-25,92; 24,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 13,67</t>
+          <t>-22,43; 12,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>-12,43%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 37,35</t>
+          <t>-50,93; 39,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 362,91</t>
+          <t>-85,72; 346,53</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,74</t>
+          <t>-15,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-39,87%</t>
+          <t>-42,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,96</t>
+          <t>-4,55; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 4,15</t>
+          <t>-5,89; 4,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 9,2</t>
+          <t>-5,96; 10,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,43; -1,26</t>
+          <t>-28,84; -1,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 487,02</t>
+          <t>-86,44; 462,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,69</t>
+          <t>-100,0; 415,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 139,04</t>
+          <t>-46,06; 195,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,07; -4,88</t>
+          <t>-66,49; -5,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>38,64%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,99</t>
+          <t>-7,08; 5,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,15</t>
+          <t>-6,87; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 7,36</t>
+          <t>-7,24; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 18,1</t>
+          <t>-0,5; 18,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 96,38</t>
+          <t>-61,14; 104,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,98; 73,5</t>
+          <t>-81,82; 78,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 53,33</t>
+          <t>-32,62; 52,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 93,86</t>
+          <t>-4,38; 105,74</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-11,74%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 6,88</t>
+          <t>-2,53; 7,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,49</t>
+          <t>-5,1; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 5,2</t>
+          <t>-11,64; 5,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 3,27</t>
+          <t>-12,82; 4,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 131,4</t>
+          <t>-28,73; 137,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 91,1</t>
+          <t>-46,58; 94,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 23,91</t>
+          <t>-37,71; 25,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 9,54</t>
+          <t>-30,85; 16,07</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-5,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,82</t>
+          <t>-2,18; 4,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,2</t>
+          <t>-3,45; 2,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,01</t>
+          <t>-5,33; 4,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,84</t>
+          <t>-7,83; 3,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 70,67</t>
+          <t>-28,06; 77,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 45,51</t>
+          <t>-43,59; 44,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 24,34</t>
+          <t>-24,63; 24,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 12,34</t>
+          <t>-22,12; 13,52</t>
         </is>
       </c>
     </row>
